--- a/TermProjectExcel.xlsx
+++ b/TermProjectExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boubacar/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8C12F7-7995-354F-9F57-CA9D99D2E417}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ABB3A69-F249-3E48-BB5C-B97DC9085F69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{CEAD4D72-61A0-4D73-AC17-364869CB6EEE}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="125">
   <si>
     <t>CourseNo</t>
   </si>
@@ -275,63 +275,12 @@
     <t>Data Structures II</t>
   </si>
   <si>
-    <t>CSC4170</t>
-  </si>
-  <si>
-    <t>Mathmatical Foundations of Computer (Same as MAT 470)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Software Development </t>
   </si>
   <si>
-    <t>CSC101</t>
-  </si>
-  <si>
-    <t>CSC110</t>
-  </si>
-  <si>
-    <t>CSC210</t>
-  </si>
-  <si>
-    <t>CSC450</t>
-  </si>
-  <si>
     <t>CSC470</t>
   </si>
   <si>
-    <t>Introduction to Programming</t>
-  </si>
-  <si>
-    <t>Computer Programming II</t>
-  </si>
-  <si>
-    <t>Advanced Programming Techniques</t>
-  </si>
-  <si>
-    <t>Fundamentals of Computer Systems</t>
-  </si>
-  <si>
-    <t>Discrete Structures and Applications to Computer Science</t>
-  </si>
-  <si>
-    <t>Assembler Language and Architecture I</t>
-  </si>
-  <si>
-    <t>Data Structures I</t>
-  </si>
-  <si>
-    <t>Data Structures</t>
-  </si>
-  <si>
-    <t>Software Development</t>
-  </si>
-  <si>
-    <t>Assembler Language and Architecture II</t>
-  </si>
-  <si>
-    <t>Computer Graphics</t>
-  </si>
-  <si>
     <t>Mathematical Foundations of Computer (Same as MAT 470)</t>
   </si>
   <si>
@@ -429,6 +378,36 @@
   </si>
   <si>
     <t>Database Systems II</t>
+  </si>
+  <si>
+    <t>F904</t>
+  </si>
+  <si>
+    <t>F905</t>
+  </si>
+  <si>
+    <t>F906</t>
+  </si>
+  <si>
+    <t>F907</t>
+  </si>
+  <si>
+    <t>M1209</t>
+  </si>
+  <si>
+    <t>F908</t>
+  </si>
+  <si>
+    <t>F1113</t>
+  </si>
+  <si>
+    <t>F1201</t>
+  </si>
+  <si>
+    <t>F1203</t>
+  </si>
+  <si>
+    <t>F1204</t>
   </si>
 </sst>
 </file>
@@ -805,8 +784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6B7A45B-1AE4-43B9-B6EC-1D23C2E77A44}">
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="M41" sqref="M41"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -854,13 +833,17 @@
         <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2">
         <v>3</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="D2" s="2">
+        <v>1200</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -871,13 +854,17 @@
         <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2">
         <v>3</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="D3" s="2">
+        <v>1104</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -888,13 +875,17 @@
         <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="C4" s="2">
         <v>2</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="D4" s="2">
+        <v>1704</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -905,13 +896,17 @@
         <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="D5" s="2">
+        <v>1802</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -922,13 +917,17 @@
         <v>13</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C6" s="2">
         <v>4</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="D6" s="2">
+        <v>1600</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -939,13 +938,17 @@
         <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="C7" s="2">
         <v>2</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="D7" s="2">
+        <v>1105</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -956,13 +959,17 @@
         <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="C8" s="2">
         <v>3</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="D8" s="2">
+        <v>1404</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -978,8 +985,12 @@
       <c r="C9" s="2">
         <v>3</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="D9" s="2">
+        <v>1303</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -990,13 +1001,17 @@
         <v>17</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="C10" s="2">
         <v>3</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="D10" s="2">
+        <v>1504</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -1007,13 +1022,17 @@
         <v>18</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="C11" s="2">
         <v>4</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="D11" s="2">
+        <v>1103</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -1024,13 +1043,17 @@
         <v>19</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="C12" s="2">
         <v>3</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="D12" s="2">
+        <v>1603</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -1041,13 +1064,17 @@
         <v>20</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="C13" s="2">
         <v>4</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="D13" s="2">
+        <v>1505</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -1058,13 +1085,17 @@
         <v>21</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="C14" s="2">
         <v>3</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="D14" s="2">
+        <v>1705</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -1075,13 +1106,17 @@
         <v>22</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="C15" s="2">
         <v>3</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="D15" s="2">
+        <v>1301</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -1092,13 +1127,17 @@
         <v>23</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="C16" s="2">
         <v>3</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="D16" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -1109,13 +1148,17 @@
         <v>24</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="C17" s="2">
         <v>4</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="D17" s="2">
+        <v>1801</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -1126,13 +1169,17 @@
         <v>25</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="C18" s="2">
         <v>3</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="D18" s="2">
+        <v>1902</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -1143,13 +1190,17 @@
         <v>26</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="C19" s="2">
         <v>3</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="D19" s="2">
+        <v>1002</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -1160,13 +1211,17 @@
         <v>27</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="C20" s="2">
         <v>3</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="D20" s="2">
+        <v>1201</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -1177,13 +1232,17 @@
         <v>28</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="2">
+        <v>3</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1904</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C21" s="2">
-        <v>3</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -1194,13 +1253,17 @@
         <v>29</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="C22" s="2">
         <v>3</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="D22" s="2">
+        <v>1601</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -1211,13 +1274,17 @@
         <v>30</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C23" s="2">
         <v>3</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="D23" s="2">
+        <v>1203</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -1228,13 +1295,17 @@
         <v>31</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="C24" s="2">
         <v>4</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="D24" s="2">
+        <v>1502</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -1250,8 +1321,12 @@
       <c r="C25" s="2">
         <v>3</v>
       </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+      <c r="D25" s="2">
+        <v>1304</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -1267,8 +1342,12 @@
       <c r="C26" s="2">
         <v>3</v>
       </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="D26" s="2">
+        <v>1803</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -1279,13 +1358,17 @@
         <v>34</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C27" s="2">
         <v>3</v>
       </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+      <c r="D27" s="2">
+        <v>1602</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -1296,13 +1379,17 @@
         <v>35</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="2">
+        <v>3</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1305</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C28" s="2">
-        <v>3</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -1313,13 +1400,17 @@
         <v>36</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C29" s="2">
         <v>3</v>
       </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+      <c r="D29" s="2">
+        <v>1905</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -1335,8 +1426,12 @@
       <c r="C30" s="2">
         <v>3</v>
       </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+      <c r="D30" s="2">
+        <v>1003</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -1347,13 +1442,17 @@
         <v>38</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="C31" s="2">
         <v>3</v>
       </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
+      <c r="D31" s="2">
+        <v>1302</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -1364,13 +1463,17 @@
         <v>39</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C32" s="2">
         <v>3</v>
       </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
+      <c r="D32" s="2">
+        <v>1804</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -1381,13 +1484,17 @@
         <v>40</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="C33" s="2">
         <v>3</v>
       </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
+      <c r="D33" s="2">
+        <v>1405</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -1398,13 +1505,17 @@
         <v>41</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="C34" s="2">
         <v>3</v>
       </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
+      <c r="D34" s="2">
+        <v>1202</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -1420,8 +1531,12 @@
       <c r="C35" s="2">
         <v>4</v>
       </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
+      <c r="D35" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -1432,13 +1547,17 @@
         <v>43</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="C36" s="2">
         <v>3</v>
       </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
+      <c r="D36" s="2">
+        <v>1903</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -1454,8 +1573,12 @@
       <c r="C37" s="2">
         <v>3</v>
       </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
+      <c r="D37" s="2">
+        <v>1800</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
@@ -1466,13 +1589,17 @@
         <v>45</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="C38" s="2">
         <v>3</v>
       </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
+      <c r="D38" s="2">
+        <v>1403</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
@@ -1483,13 +1610,17 @@
         <v>46</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="C39" s="2">
         <v>3</v>
       </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
+      <c r="D39" s="2">
+        <v>1503</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -1505,8 +1636,12 @@
       <c r="C40" s="2">
         <v>3</v>
       </c>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
+      <c r="D40" s="2">
+        <v>1500</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
@@ -1522,8 +1657,12 @@
       <c r="C41" s="2">
         <v>4</v>
       </c>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
+      <c r="D41" s="1">
+        <v>1901</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
@@ -1539,8 +1678,12 @@
       <c r="C42" s="2">
         <v>4</v>
       </c>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
+      <c r="D42" s="2">
+        <v>1900</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
@@ -1556,8 +1699,12 @@
       <c r="C43" s="2">
         <v>3</v>
       </c>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
+      <c r="D43" s="2">
+        <v>1700</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
@@ -1573,8 +1720,12 @@
       <c r="C44" s="2">
         <v>3</v>
       </c>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
+      <c r="D44" s="2">
+        <v>1100</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
@@ -1590,8 +1741,12 @@
       <c r="C45" s="2">
         <v>3</v>
       </c>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
+      <c r="D45" s="2">
+        <v>1101</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
@@ -1607,8 +1762,12 @@
       <c r="C46" s="2">
         <v>3</v>
       </c>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
+      <c r="D46" s="2">
+        <v>1701</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
@@ -1624,8 +1783,12 @@
       <c r="C47" s="2">
         <v>4</v>
       </c>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
+      <c r="D47" s="2">
+        <v>1400</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
@@ -1641,8 +1804,12 @@
       <c r="C48" s="2">
         <v>3</v>
       </c>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
+      <c r="D48" s="2">
+        <v>1702</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
@@ -1658,8 +1825,12 @@
       <c r="C49" s="2">
         <v>3</v>
       </c>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
+      <c r="D49" s="2">
+        <v>1703</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
@@ -1675,8 +1846,12 @@
       <c r="C50" s="2">
         <v>3</v>
       </c>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
+      <c r="D50" s="2">
+        <v>1401</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
@@ -1687,13 +1862,17 @@
         <v>75</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C51" s="2">
         <v>3</v>
       </c>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
+      <c r="D51" s="2">
+        <v>1300</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
@@ -1709,8 +1888,12 @@
       <c r="C52" s="2">
         <v>3</v>
       </c>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
+      <c r="D52" s="2">
+        <v>1102</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
@@ -1726,8 +1909,12 @@
       <c r="C53" s="2">
         <v>3</v>
       </c>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
+      <c r="D53" s="2">
+        <v>1402</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
@@ -1735,31 +1922,29 @@
     </row>
     <row r="54" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C54" s="2">
         <v>4</v>
       </c>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
+      <c r="D54" s="2">
+        <v>1501</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C55" s="2">
-        <v>3</v>
-      </c>
+      <c r="A55" s="2"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
@@ -1768,15 +1953,9 @@
       <c r="I55" s="2"/>
     </row>
     <row r="56" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C56" s="2">
-        <v>4</v>
-      </c>
+      <c r="A56" s="2"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -1785,15 +1964,9 @@
       <c r="I56" s="2"/>
     </row>
     <row r="57" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C57" s="2">
-        <v>4</v>
-      </c>
+      <c r="A57" s="2"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
@@ -1802,15 +1975,9 @@
       <c r="I57" s="2"/>
     </row>
     <row r="58" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C58" s="2">
-        <v>3</v>
-      </c>
+      <c r="A58" s="2"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
@@ -1819,15 +1986,9 @@
       <c r="I58" s="2"/>
     </row>
     <row r="59" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C59" s="2">
-        <v>3</v>
-      </c>
+      <c r="A59" s="2"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
@@ -1836,15 +1997,9 @@
       <c r="I59" s="2"/>
     </row>
     <row r="60" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C60" s="2">
-        <v>3</v>
-      </c>
+      <c r="A60" s="2"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
@@ -1853,15 +2008,9 @@
       <c r="I60" s="2"/>
     </row>
     <row r="61" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C61" s="2">
-        <v>3</v>
-      </c>
+      <c r="A61" s="2"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
@@ -1870,15 +2019,9 @@
       <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C62" s="2">
-        <v>4</v>
-      </c>
+      <c r="A62" s="2"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
@@ -1887,15 +2030,9 @@
       <c r="I62" s="2"/>
     </row>
     <row r="63" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C63" s="2">
-        <v>3</v>
-      </c>
+      <c r="A63" s="2"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
@@ -1904,15 +2041,9 @@
       <c r="I63" s="2"/>
     </row>
     <row r="64" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C64" s="2">
-        <v>3</v>
-      </c>
+      <c r="A64" s="2"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
@@ -1921,15 +2052,9 @@
       <c r="I64" s="2"/>
     </row>
     <row r="65" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C65" s="2">
-        <v>3</v>
-      </c>
+      <c r="A65" s="2"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
@@ -1938,15 +2063,9 @@
       <c r="I65" s="2"/>
     </row>
     <row r="66" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C66" s="2">
-        <v>3</v>
-      </c>
+      <c r="A66" s="2"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
@@ -1955,15 +2074,9 @@
       <c r="I66" s="2"/>
     </row>
     <row r="67" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C67" s="2">
-        <v>3</v>
-      </c>
+      <c r="A67" s="2"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
@@ -1972,15 +2085,9 @@
       <c r="I67" s="2"/>
     </row>
     <row r="68" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C68" s="2">
-        <v>3</v>
-      </c>
+      <c r="A68" s="2"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
@@ -1989,15 +2096,9 @@
       <c r="I68" s="2"/>
     </row>
     <row r="69" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C69" s="2">
-        <v>3</v>
-      </c>
+      <c r="A69" s="2"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
@@ -2006,15 +2107,9 @@
       <c r="I69" s="2"/>
     </row>
     <row r="70" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C70" s="2">
-        <v>4</v>
-      </c>
+      <c r="A70" s="2"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
@@ -2024,59 +2119,43 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B55" r:id="rId1" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{91679630-7A05-C64A-AE2F-8F10687A345F}"/>
-    <hyperlink ref="B56" r:id="rId2" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{F3BC64F6-0A77-D94B-8737-BB17E2532BC6}"/>
-    <hyperlink ref="B57" r:id="rId3" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{F414AD16-40D2-B247-90E2-E6ACB204EC16}"/>
-    <hyperlink ref="B58" r:id="rId4" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{CE4C2BD8-7AEA-8944-B309-FDFEA66BBEF9}"/>
-    <hyperlink ref="B59" r:id="rId5" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{E1162D65-D25D-9C4C-8EB0-CC394A1ADE3B}"/>
-    <hyperlink ref="B60" r:id="rId6" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{9C2E64FD-1C8A-3047-93AF-4EE656E0CC79}"/>
-    <hyperlink ref="B61" r:id="rId7" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{7AEE0A89-C8D8-F94C-A1CB-87F934967AE3}"/>
-    <hyperlink ref="B62" r:id="rId8" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{8C2087B3-EE4C-8A41-9A84-7A6AB16A47DA}"/>
-    <hyperlink ref="B63" r:id="rId9" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{CEBFE9C8-3296-404F-A22D-38614B5A3A00}"/>
-    <hyperlink ref="B64" r:id="rId10" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{62B9EF72-B030-F04C-AC7E-2E8A2847543A}"/>
-    <hyperlink ref="B65" r:id="rId11" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{6AB97A19-D92A-C149-B0FF-C196A9CC86DA}"/>
-    <hyperlink ref="B67" r:id="rId12" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{D182901C-64EF-4448-9E73-D21605133083}"/>
-    <hyperlink ref="B66" r:id="rId13" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{6940B783-3E1D-9C4D-B799-6D028B514146}"/>
-    <hyperlink ref="B69" r:id="rId14" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{54FA2A16-99A7-D442-A54B-25DE5C1F4A64}"/>
-    <hyperlink ref="B68" r:id="rId15" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{B5175B7F-757D-5A41-98C8-2BD01BA7B1DA}"/>
-    <hyperlink ref="B70" r:id="rId16" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{3978E722-EF9C-3343-8BB0-22C320A46EA0}"/>
-    <hyperlink ref="B2" r:id="rId17" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{4D837C2F-BC2F-1E4C-B2A2-16C9032D44E2}"/>
-    <hyperlink ref="B3" r:id="rId18" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{FD422221-D4EA-BA40-8651-81216E595BA3}"/>
-    <hyperlink ref="B4" r:id="rId19" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{60A5B0FE-A164-F24C-9D17-1EE39D0698EF}"/>
-    <hyperlink ref="B5" r:id="rId20" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{6FB071EB-2640-3648-96CC-AFCA57BED967}"/>
-    <hyperlink ref="B6" r:id="rId21" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{069043CD-DBEE-8C48-AF14-0BBACF590471}"/>
-    <hyperlink ref="B7" r:id="rId22" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{D179080F-1FE9-6645-94C2-46A11CD4F163}"/>
-    <hyperlink ref="B8" r:id="rId23" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{D57129B1-8DE7-5C43-AA8D-F1B28250B1C0}"/>
-    <hyperlink ref="B9" r:id="rId24" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{B9C0D561-C00B-0C4A-AD9D-CAD083DEBC7F}"/>
-    <hyperlink ref="B10" r:id="rId25" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{49F38595-7E81-1C48-A1ED-4FF10442D958}"/>
-    <hyperlink ref="B11" r:id="rId26" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{2D1E7C42-8453-D548-BFD1-DC182EAD057F}"/>
-    <hyperlink ref="B12" r:id="rId27" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{0D482B0B-112A-0A4B-9EDA-FCD665811A1E}"/>
-    <hyperlink ref="B13" r:id="rId28" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{E7405E0A-AF89-2D46-B0F4-CED7988A3B8A}"/>
-    <hyperlink ref="B14" r:id="rId29" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{E510779C-D617-954A-9C58-7BDF401F66B4}"/>
-    <hyperlink ref="B15" r:id="rId30" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{82379FDE-7343-5548-B006-5F1024799BE3}"/>
-    <hyperlink ref="B16" r:id="rId31" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{007344F1-100A-0846-8A30-0ABF0E0EBA0B}"/>
-    <hyperlink ref="B17" r:id="rId32" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{3187542E-F27D-764B-914A-71BB6CB629D9}"/>
-    <hyperlink ref="B18" r:id="rId33" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{80A51013-269A-5F4D-9E6D-DFEA28F7037B}"/>
-    <hyperlink ref="B19" r:id="rId34" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{7E09F60D-04B9-5B4F-A63C-8A4FE41ADA1D}"/>
-    <hyperlink ref="B20" r:id="rId35" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{EE3A133F-2FF7-5546-BD5A-9DDDB929EB17}"/>
-    <hyperlink ref="B21" r:id="rId36" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{A1FE1E09-D1B3-4541-B849-5B3F172FB55D}"/>
-    <hyperlink ref="B22" r:id="rId37" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{E035BA6C-0844-044B-ACD0-7F7C6C294A58}"/>
-    <hyperlink ref="B23" r:id="rId38" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{98F560FC-DCB3-6F42-A190-A2EDAC62F79D}"/>
-    <hyperlink ref="B24" r:id="rId39" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{C2AF1934-FCF2-DD47-8007-EE85726D7513}"/>
-    <hyperlink ref="B25" r:id="rId40" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{27139438-E77A-634C-ADB9-99FFE1BA2DF0}"/>
-    <hyperlink ref="B26" r:id="rId41" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{37C69823-D66B-9B4A-A556-453FA6ECC816}"/>
-    <hyperlink ref="B27" r:id="rId42" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{69CFA5F2-B74B-3347-B8F0-1AEF16A597C1}"/>
-    <hyperlink ref="B28" r:id="rId43" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{950192DA-CF91-DB49-AAC0-F252C3BA69FE}"/>
-    <hyperlink ref="B29" r:id="rId44" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{6F257390-2C5A-0640-8BA9-3DEF4BFDCD02}"/>
-    <hyperlink ref="B31" r:id="rId45" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{D43143A7-5684-E745-B27A-01D33732AC07}"/>
-    <hyperlink ref="B32" r:id="rId46" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{31969A39-B12F-7D48-AA50-62A3AE1CAE14}"/>
-    <hyperlink ref="B33" r:id="rId47" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{055AF1DF-3EE2-1946-9102-6D1375FD1955}"/>
-    <hyperlink ref="B34" r:id="rId48" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{99E42F46-E837-244B-A8BE-2AC595AD611D}"/>
-    <hyperlink ref="B35" r:id="rId49" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{14C0F043-C6F6-4342-9445-49E1D90B1BF4}"/>
-    <hyperlink ref="B36" r:id="rId50" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{693E05C2-A68D-4047-AA04-A00223A45283}"/>
-    <hyperlink ref="B37" r:id="rId51" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{01AAD225-4373-CE4B-B6D4-C0E2E6DEA846}"/>
-    <hyperlink ref="B38" r:id="rId52" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{A51CA938-5428-2945-8F61-1CBD40612E45}"/>
-    <hyperlink ref="B39" r:id="rId53" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{72BDC45D-2069-2943-B990-49379577CD2B}"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{4D837C2F-BC2F-1E4C-B2A2-16C9032D44E2}"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{FD422221-D4EA-BA40-8651-81216E595BA3}"/>
+    <hyperlink ref="B4" r:id="rId3" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{60A5B0FE-A164-F24C-9D17-1EE39D0698EF}"/>
+    <hyperlink ref="B5" r:id="rId4" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{6FB071EB-2640-3648-96CC-AFCA57BED967}"/>
+    <hyperlink ref="B6" r:id="rId5" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{069043CD-DBEE-8C48-AF14-0BBACF590471}"/>
+    <hyperlink ref="B7" r:id="rId6" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{D179080F-1FE9-6645-94C2-46A11CD4F163}"/>
+    <hyperlink ref="B8" r:id="rId7" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{D57129B1-8DE7-5C43-AA8D-F1B28250B1C0}"/>
+    <hyperlink ref="B9" r:id="rId8" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{B9C0D561-C00B-0C4A-AD9D-CAD083DEBC7F}"/>
+    <hyperlink ref="B10" r:id="rId9" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{49F38595-7E81-1C48-A1ED-4FF10442D958}"/>
+    <hyperlink ref="B11" r:id="rId10" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{2D1E7C42-8453-D548-BFD1-DC182EAD057F}"/>
+    <hyperlink ref="B12" r:id="rId11" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{0D482B0B-112A-0A4B-9EDA-FCD665811A1E}"/>
+    <hyperlink ref="B13" r:id="rId12" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{E7405E0A-AF89-2D46-B0F4-CED7988A3B8A}"/>
+    <hyperlink ref="B14" r:id="rId13" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{E510779C-D617-954A-9C58-7BDF401F66B4}"/>
+    <hyperlink ref="B15" r:id="rId14" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{82379FDE-7343-5548-B006-5F1024799BE3}"/>
+    <hyperlink ref="B16" r:id="rId15" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{007344F1-100A-0846-8A30-0ABF0E0EBA0B}"/>
+    <hyperlink ref="B17" r:id="rId16" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{3187542E-F27D-764B-914A-71BB6CB629D9}"/>
+    <hyperlink ref="B18" r:id="rId17" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{80A51013-269A-5F4D-9E6D-DFEA28F7037B}"/>
+    <hyperlink ref="B19" r:id="rId18" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{7E09F60D-04B9-5B4F-A63C-8A4FE41ADA1D}"/>
+    <hyperlink ref="B20" r:id="rId19" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{EE3A133F-2FF7-5546-BD5A-9DDDB929EB17}"/>
+    <hyperlink ref="B21" r:id="rId20" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{A1FE1E09-D1B3-4541-B849-5B3F172FB55D}"/>
+    <hyperlink ref="B22" r:id="rId21" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{E035BA6C-0844-044B-ACD0-7F7C6C294A58}"/>
+    <hyperlink ref="B23" r:id="rId22" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{98F560FC-DCB3-6F42-A190-A2EDAC62F79D}"/>
+    <hyperlink ref="B24" r:id="rId23" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{C2AF1934-FCF2-DD47-8007-EE85726D7513}"/>
+    <hyperlink ref="B25" r:id="rId24" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{27139438-E77A-634C-ADB9-99FFE1BA2DF0}"/>
+    <hyperlink ref="B26" r:id="rId25" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{37C69823-D66B-9B4A-A556-453FA6ECC816}"/>
+    <hyperlink ref="B27" r:id="rId26" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{69CFA5F2-B74B-3347-B8F0-1AEF16A597C1}"/>
+    <hyperlink ref="B28" r:id="rId27" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{950192DA-CF91-DB49-AAC0-F252C3BA69FE}"/>
+    <hyperlink ref="B29" r:id="rId28" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{6F257390-2C5A-0640-8BA9-3DEF4BFDCD02}"/>
+    <hyperlink ref="B31" r:id="rId29" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{D43143A7-5684-E745-B27A-01D33732AC07}"/>
+    <hyperlink ref="B32" r:id="rId30" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{31969A39-B12F-7D48-AA50-62A3AE1CAE14}"/>
+    <hyperlink ref="B33" r:id="rId31" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{055AF1DF-3EE2-1946-9102-6D1375FD1955}"/>
+    <hyperlink ref="B34" r:id="rId32" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{99E42F46-E837-244B-A8BE-2AC595AD611D}"/>
+    <hyperlink ref="B35" r:id="rId33" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{14C0F043-C6F6-4342-9445-49E1D90B1BF4}"/>
+    <hyperlink ref="B36" r:id="rId34" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{693E05C2-A68D-4047-AA04-A00223A45283}"/>
+    <hyperlink ref="B37" r:id="rId35" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{01AAD225-4373-CE4B-B6D4-C0E2E6DEA846}"/>
+    <hyperlink ref="B38" r:id="rId36" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{A51CA938-5428-2945-8F61-1CBD40612E45}"/>
+    <hyperlink ref="B39" r:id="rId37" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{72BDC45D-2069-2943-B990-49379577CD2B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TermProjectExcel.xlsx
+++ b/TermProjectExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boubacar/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ABB3A69-F249-3E48-BB5C-B97DC9085F69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F704A1-91BB-6C4C-8A01-6FB99E1CBC22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{CEAD4D72-61A0-4D73-AC17-364869CB6EEE}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="171">
   <si>
     <t>CourseNo</t>
   </si>
@@ -408,13 +408,151 @@
   </si>
   <si>
     <t>F1204</t>
+  </si>
+  <si>
+    <t>Errera,Aberto</t>
+  </si>
+  <si>
+    <t>O' Sullivan,John T</t>
+  </si>
+  <si>
+    <t>Avcilar,Tamer</t>
+  </si>
+  <si>
+    <t>Hernandez,Candido</t>
+  </si>
+  <si>
+    <t>Patrick,Dexter</t>
+  </si>
+  <si>
+    <t>Nossa,George A</t>
+  </si>
+  <si>
+    <t>Naranjo Rivera,Eduardo Efrain</t>
+  </si>
+  <si>
+    <t>Conroy,Matthew</t>
+  </si>
+  <si>
+    <t>Vargas,Jose</t>
+  </si>
+  <si>
+    <t>Melie,Ora K</t>
+  </si>
+  <si>
+    <t>Sana,Ajaz</t>
+  </si>
+  <si>
+    <t>Zeidan,Ayman</t>
+  </si>
+  <si>
+    <t>Hasan,Naushad</t>
+  </si>
+  <si>
+    <t>Scheiman,Arnold</t>
+  </si>
+  <si>
+    <t>Chan,Matthew</t>
+  </si>
+  <si>
+    <t>Yan,Louise</t>
+  </si>
+  <si>
+    <t>Azhar ,Mohammed Quamrul</t>
+  </si>
+  <si>
+    <t>Avcilar ,Tamer</t>
+  </si>
+  <si>
+    <t>Adesman,Alexander</t>
+  </si>
+  <si>
+    <t>Eckman,Robert L</t>
+  </si>
+  <si>
+    <t>Veyler,Mikhail</t>
+  </si>
+  <si>
+    <t>Salvati,Anna</t>
+  </si>
+  <si>
+    <t>Wei,Ching</t>
+  </si>
+  <si>
+    <t>Ye,Ze</t>
+  </si>
+  <si>
+    <t>Kok,Ahmet</t>
+  </si>
+  <si>
+    <t>aerrera@bmcc.cuny.edu</t>
+  </si>
+  <si>
+    <t>Faculty</t>
+  </si>
+  <si>
+    <t>212-220-1483</t>
+  </si>
+  <si>
+    <t>amkok@bmcc.cuny.edu</t>
+  </si>
+  <si>
+    <t>212-220-1492</t>
+  </si>
+  <si>
+    <t>asalvati@bmcc.cuny.edu</t>
+  </si>
+  <si>
+    <t>212-220-1480</t>
+  </si>
+  <si>
+    <t>ascheiman@bmcc.cuny.edu</t>
+  </si>
+  <si>
+    <t>212-220-7227</t>
+  </si>
+  <si>
+    <t>cwei@bmcc.cuny.edu</t>
+  </si>
+  <si>
+    <t>212-220-8385</t>
+  </si>
+  <si>
+    <t>jvargas@bmcc.cuny.edu</t>
+  </si>
+  <si>
+    <t>212-220-1481</t>
+  </si>
+  <si>
+    <t>machan@bmcc.cuny.edu</t>
+  </si>
+  <si>
+    <t>212-776-7228</t>
+  </si>
+  <si>
+    <t>tavcilar@bmcc.cuny.edu</t>
+  </si>
+  <si>
+    <t>212-220-1478</t>
+  </si>
+  <si>
+    <t>Adjunct</t>
+  </si>
+  <si>
+    <t>212-220-1476</t>
+  </si>
+  <si>
+    <t>mazhar@bmcc.cuny.edu</t>
+  </si>
+  <si>
+    <t>212-220-1477</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -424,6 +562,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -457,9 +602,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -467,6 +612,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -785,7 +931,7 @@
   <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -795,8 +941,11 @@
     <col min="3" max="3" width="8.83203125" style="1"/>
     <col min="4" max="4" width="12.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="1"/>
+    <col min="6" max="6" width="30.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.1640625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -844,10 +993,18 @@
       <c r="E2" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -865,10 +1022,16 @@
       <c r="E3" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -928,10 +1091,18 @@
       <c r="E6" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
@@ -1012,10 +1183,16 @@
       <c r="E10" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="H10" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
@@ -1096,10 +1273,16 @@
       <c r="E14" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="H14" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
@@ -1222,10 +1405,16 @@
       <c r="E20" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
+      <c r="H20" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="21" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
@@ -1348,10 +1537,16 @@
       <c r="E26" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
+      <c r="H26" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="27" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
@@ -1390,10 +1585,16 @@
       <c r="E28" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F28" s="2"/>
+      <c r="F28" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
+      <c r="H28" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="29" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
@@ -1432,10 +1633,18 @@
       <c r="E30" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
+      <c r="F30" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="31" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
@@ -1453,10 +1662,16 @@
       <c r="E31" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F31" s="2"/>
+      <c r="F31" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
+      <c r="H31" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="32" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
@@ -1474,10 +1689,16 @@
       <c r="E32" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F32" s="2"/>
+      <c r="F32" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
+      <c r="H32" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="33" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
@@ -1579,7 +1800,9 @@
       <c r="E37" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F37" s="2"/>
+      <c r="F37" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -1621,10 +1844,16 @@
       <c r="E39" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F39" s="2"/>
+      <c r="F39" s="2" t="s">
+        <v>136</v>
+      </c>
       <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
+      <c r="H39" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="40" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
@@ -1642,10 +1871,16 @@
       <c r="E40" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F40" s="2"/>
+      <c r="F40" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
+      <c r="H40" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="41" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
@@ -1663,10 +1898,18 @@
       <c r="E41" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
+      <c r="F41" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="42" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
@@ -1684,10 +1927,18 @@
       <c r="E42" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
+      <c r="F42" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="43" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
@@ -1705,10 +1956,16 @@
       <c r="E43" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F43" s="2"/>
+      <c r="F43" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
+      <c r="H43" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="44" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
@@ -1726,10 +1983,18 @@
       <c r="E44" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
+      <c r="F44" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="45" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
@@ -1747,10 +2012,18 @@
       <c r="E45" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
+      <c r="F45" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="46" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
@@ -1768,10 +2041,16 @@
       <c r="E46" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F46" s="2"/>
+      <c r="F46" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
+      <c r="H46" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="47" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
@@ -1789,10 +2068,16 @@
       <c r="E47" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F47" s="2"/>
+      <c r="F47" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
+      <c r="H47" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="48" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
@@ -1810,10 +2095,16 @@
       <c r="E48" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F48" s="2"/>
+      <c r="F48" s="2" t="s">
+        <v>145</v>
+      </c>
       <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
+      <c r="H48" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="49" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
@@ -1831,10 +2122,18 @@
       <c r="E49" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
+      <c r="F49" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="50" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
@@ -1873,10 +2172,15 @@
       <c r="E51" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
+      <c r="F51" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="52" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
@@ -1894,10 +2198,16 @@
       <c r="E52" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F52" s="2"/>
+      <c r="F52" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
+      <c r="H52" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="53" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
@@ -1915,10 +2225,18 @@
       <c r="E53" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
+      <c r="F53" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="54" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
@@ -2156,6 +2474,7 @@
     <hyperlink ref="B37" r:id="rId35" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{01AAD225-4373-CE4B-B6D4-C0E2E6DEA846}"/>
     <hyperlink ref="B38" r:id="rId36" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{A51CA938-5428-2945-8F61-1CBD40612E45}"/>
     <hyperlink ref="B39" r:id="rId37" display="https://www.bmcc.cuny.edu/academics/departments/cis/course-listings/" xr:uid="{72BDC45D-2069-2943-B990-49379577CD2B}"/>
+    <hyperlink ref="G6" r:id="rId38" xr:uid="{9A59C017-CD6E-BF45-90F1-B504793059F1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TermProjectExcel.xlsx
+++ b/TermProjectExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boubacar/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F704A1-91BB-6C4C-8A01-6FB99E1CBC22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{60CCB800-73B0-DD43-BCF9-E306BE85D400}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{CEAD4D72-61A0-4D73-AC17-364869CB6EEE}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="197">
   <si>
     <t>CourseNo</t>
   </si>
@@ -546,6 +546,84 @@
   </si>
   <si>
     <t>212-220-1477</t>
+  </si>
+  <si>
+    <t>Chen,Yan</t>
+  </si>
+  <si>
+    <t>ychen@bmcc.cuny.edu</t>
+  </si>
+  <si>
+    <t>212-220-8384</t>
+  </si>
+  <si>
+    <t>Toliyat Abolhassani,Amir Mohsen</t>
+  </si>
+  <si>
+    <t>Azhar,Mohammad Quamrul</t>
+  </si>
+  <si>
+    <t>Jayaweera,Darshani P</t>
+  </si>
+  <si>
+    <t>Harricharan,Andy L</t>
+  </si>
+  <si>
+    <t>Zeidan,Ayman I</t>
+  </si>
+  <si>
+    <t>Kalicharan,Dharamraj</t>
+  </si>
+  <si>
+    <t>Rani,Chigurupati S</t>
+  </si>
+  <si>
+    <t>csrani@bmcc.cuny.edu</t>
+  </si>
+  <si>
+    <t>212-220-1487</t>
+  </si>
+  <si>
+    <t>Khan,Lawrence</t>
+  </si>
+  <si>
+    <t>Scheiman,Arnold J</t>
+  </si>
+  <si>
+    <t>Liu,Ligon Mengxu</t>
+  </si>
+  <si>
+    <t>Mokal,Prajakta L</t>
+  </si>
+  <si>
+    <t>Genis,Yakov</t>
+  </si>
+  <si>
+    <t>ygenis@bmcc.cuny.edu</t>
+  </si>
+  <si>
+    <t>212-220-1482</t>
+  </si>
+  <si>
+    <t>Vargas,Jose I</t>
+  </si>
+  <si>
+    <t>Cooper,Kenneth J</t>
+  </si>
+  <si>
+    <t>O'Faire,Lashawna R</t>
+  </si>
+  <si>
+    <t>Lau,Roy</t>
+  </si>
+  <si>
+    <t>Doumassi,Kokou</t>
+  </si>
+  <si>
+    <t>Anderson,Raheim Alan</t>
+  </si>
+  <si>
+    <t>Santos,Jose Ramon R</t>
   </si>
 </sst>
 </file>
@@ -931,7 +1009,7 @@
   <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1049,10 +1127,18 @@
       <c r="E4" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="F4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G4" t="s">
+        <v>172</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I4" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
@@ -1070,10 +1156,16 @@
       <c r="E5" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" t="s">
+        <v>134</v>
+      </c>
       <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I5" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
@@ -1120,10 +1212,16 @@
       <c r="E7" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" t="s">
+        <v>174</v>
+      </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I7" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
@@ -1141,10 +1239,18 @@
       <c r="E8" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="F8" t="s">
+        <v>175</v>
+      </c>
+      <c r="G8" t="s">
+        <v>169</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I8" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
@@ -1162,10 +1268,16 @@
       <c r="E9" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" t="s">
+        <v>176</v>
+      </c>
       <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="H9" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I9" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
@@ -1210,10 +1322,16 @@
       <c r="E11" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" t="s">
+        <v>177</v>
+      </c>
       <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="H11" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I11" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
@@ -1231,10 +1349,16 @@
       <c r="E12" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" t="s">
+        <v>178</v>
+      </c>
       <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="H12" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I12" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
@@ -1252,10 +1376,16 @@
       <c r="E13" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" t="s">
+        <v>179</v>
+      </c>
       <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="H13" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I13" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
@@ -1300,10 +1430,16 @@
       <c r="E15" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="F15" t="s">
+        <v>179</v>
+      </c>
       <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+      <c r="H15" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
@@ -1321,10 +1457,16 @@
       <c r="E16" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F16" s="2"/>
+      <c r="F16" t="s">
+        <v>145</v>
+      </c>
       <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+      <c r="H16" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="17" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
@@ -1342,10 +1484,16 @@
       <c r="E17" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F17" s="2"/>
+      <c r="F17" t="s">
+        <v>143</v>
+      </c>
       <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="H17" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="18" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
@@ -1363,10 +1511,18 @@
       <c r="E18" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+      <c r="F18" t="s">
+        <v>180</v>
+      </c>
+      <c r="G18" t="s">
+        <v>181</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I18" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="19" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
@@ -1384,10 +1540,16 @@
       <c r="E19" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F19" s="2"/>
+      <c r="F19" t="s">
+        <v>183</v>
+      </c>
       <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+      <c r="H19" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="20" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
@@ -1432,10 +1594,18 @@
       <c r="E21" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
+      <c r="F21" t="s">
+        <v>184</v>
+      </c>
+      <c r="G21" t="s">
+        <v>157</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I21" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="22" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
@@ -1453,10 +1623,16 @@
       <c r="E22" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F22" s="2"/>
+      <c r="F22" t="s">
+        <v>185</v>
+      </c>
       <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="H22" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="23" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
@@ -1474,10 +1650,16 @@
       <c r="E23" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F23" s="2"/>
+      <c r="F23" t="s">
+        <v>186</v>
+      </c>
       <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
+      <c r="H23" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="24" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
@@ -1495,10 +1677,18 @@
       <c r="E24" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
+      <c r="F24" t="s">
+        <v>187</v>
+      </c>
+      <c r="G24" t="s">
+        <v>188</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I24" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="25" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
@@ -1516,10 +1706,16 @@
       <c r="E25" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F25" s="2"/>
+      <c r="F25" t="s">
+        <v>137</v>
+      </c>
       <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
+      <c r="H25" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="26" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
@@ -1564,10 +1760,18 @@
       <c r="E27" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
+      <c r="F27" t="s">
+        <v>190</v>
+      </c>
+      <c r="G27" t="s">
+        <v>161</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I27" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="28" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
@@ -1612,10 +1816,16 @@
       <c r="E29" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F29" s="2"/>
+      <c r="F29" t="s">
+        <v>191</v>
+      </c>
       <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
+      <c r="H29" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="30" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
@@ -1716,10 +1926,16 @@
       <c r="E33" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F33" s="2"/>
+      <c r="F33" t="s">
+        <v>130</v>
+      </c>
       <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
+      <c r="H33" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="34" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
@@ -1737,10 +1953,16 @@
       <c r="E34" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F34" s="2"/>
+      <c r="F34" t="s">
+        <v>192</v>
+      </c>
       <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
+      <c r="H34" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="35" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
@@ -1758,10 +1980,16 @@
       <c r="E35" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F35" s="2"/>
+      <c r="F35" t="s">
+        <v>193</v>
+      </c>
       <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
+      <c r="H35" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="36" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
@@ -1779,10 +2007,16 @@
       <c r="E36" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F36" s="2"/>
+      <c r="F36" t="s">
+        <v>128</v>
+      </c>
       <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
+      <c r="H36" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="37" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
@@ -1804,8 +2038,12 @@
         <v>131</v>
       </c>
       <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
+      <c r="H37" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="38" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
@@ -1823,10 +2061,16 @@
       <c r="E38" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F38" s="2"/>
+      <c r="F38" t="s">
+        <v>194</v>
+      </c>
       <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
+      <c r="H38" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="39" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
@@ -2151,10 +2395,16 @@
       <c r="E50" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F50" s="2"/>
+      <c r="F50" t="s">
+        <v>195</v>
+      </c>
       <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
+      <c r="H50" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="51" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
@@ -2254,10 +2504,16 @@
       <c r="E54" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F54" s="2"/>
+      <c r="F54" t="s">
+        <v>196</v>
+      </c>
       <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
+      <c r="H54" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="55" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
